--- a/behavior-trees-dataset/raw-model-data/BehaviorTree.CPP/BehaviorTree_CPP_model_stats.xlsx
+++ b/behavior-trees-dataset/raw-model-data/BehaviorTree.CPP/BehaviorTree_CPP_model_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior trees dataset\raw-model-data\BehaviorTree.CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\raw-model-data\BehaviorTree.CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2179122F-3274-4E5E-B1BE-6A4C2741B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3862ACB-4CA0-4504-8734-00A2313D44A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40335" yWindow="1080" windowWidth="15495" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="636" windowWidth="17832" windowHeight="15048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTCPP_model_analysis" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>total_leaf</t>
   </si>
   <si>
-    <t>file name</t>
-  </si>
-  <si>
     <t>total_selector</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>ABF</t>
   </si>
   <si>
-    <t>RepoProjectName</t>
-  </si>
-  <si>
     <t>sum_BT_size</t>
   </si>
   <si>
@@ -565,6 +559,12 @@
   </si>
   <si>
     <t>avg_BT.size</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>repository</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,19 +1473,19 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>5</v>
@@ -1515,81 +1515,81 @@
         <v>6</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1687,16 +1687,16 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1904,13 +1904,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2011,13 +2011,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2118,13 +2118,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2225,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2332,13 +2332,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2439,13 +2439,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2546,13 +2546,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2653,13 +2653,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2760,13 +2760,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2867,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2974,13 +2974,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3078,16 +3078,16 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3292,16 +3292,16 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3399,16 +3399,16 @@
     </row>
     <row r="19" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="20" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3613,16 +3613,16 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3720,16 +3720,16 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3934,16 +3934,16 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4041,16 +4041,16 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4362,16 +4362,16 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4472,13 +4472,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4579,13 +4579,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4686,13 +4686,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4793,13 +4793,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4900,13 +4900,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5004,16 +5004,16 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5111,16 +5111,16 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5218,16 +5218,16 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5325,16 +5325,16 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5539,16 +5539,16 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5753,16 +5753,16 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5967,16 +5967,16 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6074,16 +6074,16 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6181,16 +6181,16 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6288,16 +6288,16 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6395,16 +6395,16 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -6502,16 +6502,16 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -6609,16 +6609,16 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6716,16 +6716,16 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6823,16 +6823,16 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6930,16 +6930,16 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7037,16 +7037,16 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -7144,16 +7144,16 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7251,16 +7251,16 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -7358,16 +7358,16 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -7474,7 +7474,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7494,68 +7494,68 @@
     <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>38</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <f>SUM(B2:B17)</f>

--- a/behavior-trees-dataset/raw-model-data/BehaviorTree.CPP/BehaviorTree_CPP_model_stats.xlsx
+++ b/behavior-trees-dataset/raw-model-data/BehaviorTree.CPP/BehaviorTree_CPP_model_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\raw-model-data\BehaviorTree.CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3862ACB-4CA0-4504-8734-00A2313D44A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0843FFA-845B-4D72-ACCA-AD4B4D6E5B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="636" windowWidth="17832" windowHeight="15048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTCPP_model_analysis" sheetId="1" r:id="rId1"/>
@@ -495,54 +495,6 @@
     <t>num_model</t>
   </si>
   <si>
-    <t>ajbandera_MiRON-project</t>
-  </si>
-  <si>
-    <t>IntelligentRoboticsLabs_robocup2020</t>
-  </si>
-  <si>
-    <t>ipa-rar_pickplace</t>
-  </si>
-  <si>
-    <t>Adlink-ROS_BT_ros2</t>
-  </si>
-  <si>
-    <t>vislab-tecnico-lisboa_vizzy_playground</t>
-  </si>
-  <si>
-    <t>alexandrethm_mecatro-P17</t>
-  </si>
-  <si>
-    <t>ParthasarathyBana_behavior_tree_roscpp</t>
-  </si>
-  <si>
-    <t>skylerpan_neuronbot2_multibot</t>
-  </si>
-  <si>
-    <t>vislab-tecnico-lisboa_vizzy_behavior_trees</t>
-  </si>
-  <si>
-    <t>kmi-robots_hans-ros-supervisor</t>
-  </si>
-  <si>
-    <t>MROS-RobMoSys-ITP_Pilot-URJC</t>
-  </si>
-  <si>
-    <t>CARVE-ROBMOSYS_BTCompiler</t>
-  </si>
-  <si>
-    <t>julienbayle_stardust</t>
-  </si>
-  <si>
-    <t>CARVE-ROBMOSYS_carve-scenarios-config</t>
-  </si>
-  <si>
-    <t>CARVE-ROBMOSYS_Yarp-SmartSoft-Integration</t>
-  </si>
-  <si>
-    <t>MiRON-project_bundles</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -552,9 +504,6 @@
     <t>avg_ABF</t>
   </si>
   <si>
-    <t>vislab-tecnico-lisboa_vizzy</t>
-  </si>
-  <si>
     <t>BT.size</t>
   </si>
   <si>
@@ -565,6 +514,57 @@
   </si>
   <si>
     <t>repository</t>
+  </si>
+  <si>
+    <t>Adlink-ROS/BT_ros2</t>
+  </si>
+  <si>
+    <t>ajbandera/MiRON-project</t>
+  </si>
+  <si>
+    <t>alexandrethm/mecatro-P17</t>
+  </si>
+  <si>
+    <t>CARVE-ROBMOSYS/BTCompiler</t>
+  </si>
+  <si>
+    <t>CARVE-ROBMOSYS/carve-scenarios-config</t>
+  </si>
+  <si>
+    <t>CARVE-ROBMOSYS/Yarp-SmartSoft-Integration</t>
+  </si>
+  <si>
+    <t>IntelligentRoboticsLabs/robocup2020</t>
+  </si>
+  <si>
+    <t>ipa-rar/pickplace</t>
+  </si>
+  <si>
+    <t>julienbayle/stardust</t>
+  </si>
+  <si>
+    <t>kmi-robots/hans-ros-supervisor</t>
+  </si>
+  <si>
+    <t>MiRON-project/bundles</t>
+  </si>
+  <si>
+    <t>MROS-RobMoSys-ITP/Pilot-URJC</t>
+  </si>
+  <si>
+    <t>ParthasarathyBana/behavior_tree_roscpp</t>
+  </si>
+  <si>
+    <t>skylerpan/neuronbot2_multibot</t>
+  </si>
+  <si>
+    <t>vislab-tecnico-lisboa/vizzy</t>
+  </si>
+  <si>
+    <t>vislab-tecnico-lisboa/vizzy_playground</t>
+  </si>
+  <si>
+    <t>vislab-tecnico-lisboa/vizzy_behavior_trees</t>
   </si>
 </sst>
 </file>
@@ -1429,11 +1429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,10 +1473,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>121</v>
@@ -1569,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>8</v>
@@ -1583,7 +1583,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -1690,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
@@ -1797,7 +1797,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2118,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2225,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2332,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -2546,7 +2546,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -2653,7 +2653,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2760,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2867,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2974,7 +2974,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3081,7 +3081,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
@@ -3188,7 +3188,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -3295,7 +3295,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -3402,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -3509,7 +3509,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
@@ -3616,7 +3616,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -3723,7 +3723,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -3830,7 +3830,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
@@ -3937,7 +3937,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
@@ -4044,7 +4044,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -4151,7 +4151,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
@@ -4258,7 +4258,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
@@ -4365,7 +4365,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
@@ -4472,7 +4472,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -4579,7 +4579,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -4686,7 +4686,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -4793,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -5007,7 +5007,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
         <v>98</v>
@@ -5114,7 +5114,7 @@
         <v>60</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
         <v>99</v>
@@ -5221,7 +5221,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
@@ -5328,7 +5328,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
@@ -5435,7 +5435,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
@@ -5542,7 +5542,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
@@ -5649,7 +5649,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
         <v>104</v>
@@ -5756,7 +5756,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
         <v>105</v>
@@ -5863,7 +5863,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
@@ -5970,7 +5970,7 @@
         <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>107</v>
@@ -6077,7 +6077,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -6184,7 +6184,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>109</v>
@@ -6291,7 +6291,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
         <v>110</v>
@@ -6398,7 +6398,7 @@
         <v>72</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
         <v>111</v>
@@ -6505,7 +6505,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>112</v>
@@ -6612,7 +6612,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
@@ -6719,7 +6719,7 @@
         <v>75</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
@@ -6826,7 +6826,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
         <v>115</v>
@@ -6933,7 +6933,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
         <v>116</v>
@@ -7040,7 +7040,7 @@
         <v>78</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>117</v>
@@ -7147,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
         <v>118</v>
@@ -7254,7 +7254,7 @@
         <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>119</v>
@@ -7361,7 +7361,7 @@
         <v>81</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -7473,9 +7473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA28FBCE-4052-44CB-82D0-83B6DBCE6B0F}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7499,7 +7497,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>139</v>
@@ -7544,18 +7542,18 @@
         <v>152</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7617,7 +7615,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -7679,7 +7677,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -7741,7 +7739,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -7803,7 +7801,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -7865,7 +7863,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -7927,7 +7925,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -7989,7 +7987,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -8051,7 +8049,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -8113,7 +8111,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -8175,7 +8173,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8237,7 +8235,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -8299,7 +8297,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14">
         <v>38</v>
@@ -8361,7 +8359,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -8423,7 +8421,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -8485,7 +8483,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -8567,7 +8565,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <f>SUM(B2:B17)</f>
